--- a/assets/disciplinas/LOQ4213.xlsx
+++ b/assets/disciplinas/LOQ4213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os fundamentos da Contabilidade Geral, de modo que os alunos possam compreender os conceitos e princípios básicos de Contabilidade. Capacitar na produção e análise de documentos e de registros de transações contábeis. Compreender os sistemas de custeio e sua aplicação. Capacitar a projetar e implantar sistemas de custeio. Capacitar a analisar custos em relação a estratégia de mercado e de produção de uma organização.</t>
+    <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>11079086 - Herlandí de Souza Andrade</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1  Fundamentos de Contabilidade. 2 - Sistemas de Custeio. 3 - Projeto de Sistemas de Custeio. 4 - Análise de Custos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. FUNDAMENTOS DE CONTABILIDADEConceito de contabilidade. Contabilidade e Engenharia de Produção. Balanço: ativo, passivo, patrimônio líquido. Procedimentos contábeis básicos. Variações da situação líquida; despesa, receita. Regimes de competência e caixa. Receitas e despesas diferidas. Fatos Contábeis. Operações com mercadorias. Inventário. Ativo Imobilizado e Amortização. Demonstrativo de origens e aplicações. Análise de Balanço e de resultados.2. SISTEMAS DE CUSTEIOCustos diretos e indiretos, fixos e variáveis. Acumulação de custos, classificação, fatores de custo. Custeio por Absorção. Produção por ordem, contínua, conjunta. Custeio Direto: margem de contribuição. Custeio ABC.3. PROJETO DE SISTEMAS DE CUSTEIOProdutos e Departamentos. Sistemas de produção e sistemas de custeio. O problema da inflação.4. ANÁLISE DE CUSTOSCusto-Volume-Lucro. Contribuição marginal. Análise de variações. Equação de produtividade global. Alavancagem operacional. TIR e lucratividade.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Aritmética dos Projetos, Trabalhos e Exercícios realizados no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude) desenvolvidas.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>IUDICIBUS, S.; MARION, J. C. Curso de Contabilidade para não Contadores. 8 ed. São Paulo: Atlas, 2018.MARTINS, E. Contabilidade de Custos. 11 ed. São Paulo: Atlas, 2018.SANTOS, J. J. Manual de Contabilidade e Análise de Custos. 7 ed. São Paulo: Atlas, 2017.SILVA, R. N. S.; LINS, L. S. Gestão de Custos - Contabilidade, Controle e Análise. 4 ed. São Paulo: Atlas, 2017.DUTRA, R. G. Custos: Uma Abordagem Prática. 8 ed. São Paulo: Atlas, 2017.MEGLIORINI, E.; BUENO, A. S. Contabilidade para cursos de Engenharia. São Paulo: Atlas, 2014.MORANTE, A. S. Análise das Demonstrações Financeiras. 2 ed. São Paulo: Atlas, 2009.Bruni, Adriano L., Fama, Rubens. Gestão de custos e formação de preços. 5. Ed., São Paulo: Atlas, 2008.Hansen, Don R., Mowen, Maryanne M., Gestão de custos – contabilidade e controle. São Paulo: Pioneira Thomson, 2001Horngren, Charles T., Datar, Srikant M., Foster, George. Contabilidade de custos (vol. 1 e 2). 11. Ed. São Paulo: Pearson, 2004.Maher, Michael. Contabilidade de custos – criando valor para a administração. 5. ed., São Paulo: Atlas, 2001.Martins, Eliseu. Contabilidade de Custos (livro de exercícios). 9. Ed., São Paulo: Atlas, 2006.Martins, Eliseu. Contabilidade de Custos (livro texto). 9. Ed., São Paulo: Atlas, 2003.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4213.xlsx
+++ b/assets/disciplinas/LOQ4213.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar os fundamentos da Contabilidade Geral, de modo que os alunos possam compreender os conceitos e princípios básicos de Contabilidade. Capacitar na produção e análise de documentos e de registros de transações contábeis. Compreender os sistemas de custeio e sua aplicação. Capacitar a projetar e implantar sistemas de custeio. Capacitar a analisar custos em relação a estratégia de mercado e de produção de uma organização.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Present the fundamentals of General Accounting, so that students can understand the basic concepts and principles of Accounting. Train in the production and analysis of documents and records of accounting transactions. Understand costing systems and their application. Empower to design and implement costing systems. Empower to analyze costs in relation to an organization's market and production strategy.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>11079086 - Herlandí de Souza Andrade</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Present the fundamentals of General Accounting, so that students can understand the basic concepts and principles of Accounting. Train in the production and analysis of documents and records of accounting transactions. Understand costing systems and their application. Empower to design and implement costing systems. Empower to analyze costs in relation to an organization's market and production strategy.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1  Fundamentos de Contabilidade. 2 - Sistemas de Custeio. 3 - Projeto de Sistemas de Custeio. 4 - Análise de Custos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. FUNDAMENTOS DE CONTABILIDADEConceito de contabilidade. Contabilidade e Engenharia de Produção. Balanço: ativo, passivo, patrimônio líquido. Procedimentos contábeis básicos. Variações da situação líquida; despesa, receita. Regimes de competência e caixa. Receitas e despesas diferidas. Fatos Contábeis. Operações com mercadorias. Inventário. Ativo Imobilizado e Amortização. Demonstrativo de origens e aplicações. Análise de Balanço e de resultados.2. SISTEMAS DE CUSTEIOCustos diretos e indiretos, fixos e variáveis. Acumulação de custos, classificação, fatores de custo. Custeio por Absorção. Produção por ordem, contínua, conjunta. Custeio Direto: margem de contribuição. Custeio ABC.3. PROJETO DE SISTEMAS DE CUSTEIOProdutos e Departamentos. Sistemas de produção e sistemas de custeio. O problema da inflação.4. ANÁLISE DE CUSTOSCusto-Volume-Lucro. Contribuição marginal. Análise de variações. Equação de produtividade global. Alavancagem operacional. TIR e lucratividade.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas e dialogadas; dinâmicas, projetos e trabalhos em grupo; exercícios individuais; e, seminários, debates e palestras.</t>
+    <t>Média Aritmética dos Projetos, Trabalhos e Exercícios realizados no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude) desenvolvidas.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Aritmética dos Projetos, Trabalhos e Exercícios realizados no decorrer da disciplina, considerando as questões relativas às Competências (Conhecimento, Habilidade e Atitude) desenvolvidas.</t>
+    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde MF é a média final da avaliação e PR é uma prova de recuperação.</t>
+    <t>IUDICIBUS, S.; MARION, J. C. Curso de Contabilidade para não Contadores. 8 ed. São Paulo: Atlas, 2018.MARTINS, E. Contabilidade de Custos. 11 ed. São Paulo: Atlas, 2018.SANTOS, J. J. Manual de Contabilidade e Análise de Custos. 7 ed. São Paulo: Atlas, 2017.SILVA, R. N. S.; LINS, L. S. Gestão de Custos - Contabilidade, Controle e Análise. 4 ed. São Paulo: Atlas, 2017.DUTRA, R. G. Custos: Uma Abordagem Prática. 8 ed. São Paulo: Atlas, 2017.MEGLIORINI, E.; BUENO, A. S. Contabilidade para cursos de Engenharia. São Paulo: Atlas, 2014.MORANTE, A. S. Análise das Demonstrações Financeiras. 2 ed. São Paulo: Atlas, 2009.Bruni, Adriano L., Fama, Rubens. Gestão de custos e formação de preços. 5. Ed., São Paulo: Atlas, 2008.Hansen, Don R., Mowen, Maryanne M., Gestão de custos – contabilidade e controle. São Paulo: Pioneira Thomson, 2001Horngren, Charles T., Datar, Srikant M., Foster, George. Contabilidade de custos (vol. 1 e 2). 11. Ed. São Paulo: Pearson, 2004.Maher, Michael. Contabilidade de custos – criando valor para a administração. 5. ed., São Paulo: Atlas, 2001.Martins, Eliseu. Contabilidade de Custos (livro de exercícios). 9. Ed., São Paulo: Atlas, 2006.Martins, Eliseu. Contabilidade de Custos (livro texto). 9. Ed., São Paulo: Atlas, 2003.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
